--- a/output/笔记本电脑出口.xlsx
+++ b/output/笔记本电脑出口.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J158"/>
+  <dimension ref="A1:J159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2024年1-6月金额</t>
+          <t>2024年1-7月金额</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2024年1-6月占比</t>
+          <t>2024年1-7月占比</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -510,10 +510,10 @@
         <v>0.4656369228700607</v>
       </c>
       <c r="H2" t="n">
-        <v>126.42</v>
+        <v>154.95</v>
       </c>
       <c r="I2" t="n">
-        <v>0.486979969183359</v>
+        <v>0.4941953179817568</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -546,10 +546,10 @@
         <v>0.09316436122829722</v>
       </c>
       <c r="H3" t="n">
-        <v>24.72</v>
+        <v>27.59</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09522342064714945</v>
+        <v>0.08799515213369906</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
         <v>0.08519757298687328</v>
       </c>
       <c r="H4" t="n">
-        <v>19.98</v>
+        <v>24.42</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07696456086286595</v>
+        <v>0.07788479938763795</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -618,10 +618,10 @@
         <v>0.04205254046422508</v>
       </c>
       <c r="H5" t="n">
-        <v>11.09</v>
+        <v>12.99</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04271956856702619</v>
+        <v>0.04143012055878038</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -654,10 +654,10 @@
         <v>0.036001815217574</v>
       </c>
       <c r="H6" t="n">
-        <v>9.31</v>
+        <v>12.35</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03586286594761171</v>
+        <v>0.0393889136952223</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -690,10 +690,10 @@
         <v>0.03430425063448577</v>
       </c>
       <c r="H7" t="n">
-        <v>4.96</v>
+        <v>6.03</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01910631741140216</v>
+        <v>0.01923199591758628</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -726,10 +726,10 @@
         <v>0.03270753147217507</v>
       </c>
       <c r="H8" t="n">
-        <v>9.199999999999999</v>
+        <v>10.77</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03543913713405238</v>
+        <v>0.0343496842508133</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
         <v>0.0316822696942703</v>
       </c>
       <c r="H9" t="n">
-        <v>8.390000000000001</v>
+        <v>9.73</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03231895223420647</v>
+        <v>0.03103272309753142</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -798,10 +798,10 @@
         <v>0.03082508361766139</v>
       </c>
       <c r="H10" t="n">
-        <v>7.01</v>
+        <v>8.58</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02700308166409861</v>
+        <v>0.0273649295145755</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -834,10 +834,10 @@
         <v>0.02574919743852631</v>
       </c>
       <c r="H11" t="n">
-        <v>7.82</v>
+        <v>8.81</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03012326656394453</v>
+        <v>0.02809848823116668</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -870,10 +870,10 @@
         <v>0.01966485705161605</v>
       </c>
       <c r="H12" t="n">
-        <v>4.8</v>
+        <v>5.46</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0184899845916795</v>
+        <v>0.01741404605472986</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         <v>0.01892532396591425</v>
       </c>
       <c r="H13" t="n">
-        <v>3.83</v>
+        <v>4.4</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01475346687211094</v>
+        <v>0.01403329718696179</v>
       </c>
       <c r="J13" t="inlineStr"/>
     </row>
@@ -938,10 +938,10 @@
         <v>0.01403432105820461</v>
       </c>
       <c r="H14" t="n">
-        <v>2.27</v>
+        <v>2.39</v>
       </c>
       <c r="I14" t="n">
-        <v>0.008744221879815099</v>
+        <v>0.007622631881099701</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -974,10 +974,10 @@
         <v>0.01354690152444661</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.93</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01309707241910632</v>
+        <v>0.01253428589653633</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1010,10 +1010,10 @@
         <v>0.01252163974654184</v>
       </c>
       <c r="H16" t="n">
-        <v>3.43</v>
+        <v>4.16</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01321263482280431</v>
+        <v>0.01326784461312751</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1046,10 +1046,10 @@
         <v>0.01038707834008437</v>
       </c>
       <c r="H17" t="n">
-        <v>2.05</v>
+        <v>2.68</v>
       </c>
       <c r="I17" t="n">
-        <v>0.007896764252696455</v>
+        <v>0.008547553741149455</v>
       </c>
       <c r="J17" t="inlineStr"/>
     </row>
@@ -1078,10 +1078,10 @@
         <v>0.004017009260971142</v>
       </c>
       <c r="H18" t="n">
-        <v>1.18</v>
+        <v>1.56</v>
       </c>
       <c r="I18" t="n">
-        <v>0.004545454545454545</v>
+        <v>0.004975441729922817</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1114,10 +1114,10 @@
         <v>0.003916163840193623</v>
       </c>
       <c r="H19" t="n">
-        <v>1.42</v>
+        <v>2.39</v>
       </c>
       <c r="I19" t="n">
-        <v>0.00546995377503852</v>
+        <v>0.007622631881099701</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         <v>0.003764895709027346</v>
       </c>
       <c r="H20" t="n">
-        <v>1.48</v>
+        <v>1.89</v>
       </c>
       <c r="I20" t="n">
-        <v>0.005701078582434514</v>
+        <v>0.006027939018944952</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1186,10 +1186,10 @@
         <v>0.003714472998638587</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002657935285053929</v>
+        <v>0.002615296293933788</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1222,10 +1222,10 @@
         <v>0.00351278215708355</v>
       </c>
       <c r="H22" t="n">
-        <v>1.26</v>
+        <v>1.57</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00485362095531587</v>
+        <v>0.005007335587165913</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
         <v>0.00240348252853085</v>
       </c>
       <c r="H23" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001848998459167951</v>
+        <v>0.001722268291127129</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         <v>0.002151368976587055</v>
       </c>
       <c r="H24" t="n">
-        <v>0.58</v>
+        <v>0.72</v>
       </c>
       <c r="I24" t="n">
-        <v>0.002234206471494607</v>
+        <v>0.002296357721502839</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1330,10 +1330,10 @@
         <v>0.001798410003865741</v>
       </c>
       <c r="H25" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="I25" t="n">
-        <v>0.004044684129429892</v>
+        <v>0.003986732155386873</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1366,10 +1366,10 @@
         <v>0.001579911592181118</v>
       </c>
       <c r="H26" t="n">
-        <v>0.83</v>
+        <v>1.12</v>
       </c>
       <c r="I26" t="n">
-        <v>0.003197226502311248</v>
+        <v>0.003572112011226639</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1402,10 +1402,10 @@
         <v>0.001361413180496496</v>
       </c>
       <c r="H27" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0009630200308166409</v>
+        <v>0.0009887095745359446</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1438,10 +1438,10 @@
         <v>0.001226952619459805</v>
       </c>
       <c r="H28" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0009630200308166409</v>
+        <v>0.0009249218600497545</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>0.0011092996285527</v>
       </c>
       <c r="H29" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0005007704160246533</v>
+        <v>0.0005103017158895198</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1510,10 +1510,10 @@
         <v>0.0006554952350538683</v>
       </c>
       <c r="H30" t="n">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="I30" t="n">
-        <v>0.001617873651771957</v>
+        <v>0.001562799004911654</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1546,10 +1546,10 @@
         <v>0.0005378422441467636</v>
       </c>
       <c r="H31" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0003466872110939907</v>
+        <v>0.0004465140014033298</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1582,10 +1582,10 @@
         <v>0.0003529589727213137</v>
       </c>
       <c r="H32" t="n">
-        <v>0.55</v>
+        <v>0.64</v>
       </c>
       <c r="I32" t="n">
-        <v>0.00211864406779661</v>
+        <v>0.002041206863558079</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1618,10 +1618,10 @@
         <v>0.0003361514025917273</v>
       </c>
       <c r="H33" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0001540832049306625</v>
+        <v>0.0001594692862154749</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1654,10 +1654,10 @@
         <v>0.0002016908415550364</v>
       </c>
       <c r="H34" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0001540832049306625</v>
+        <v>0.0001594692862154749</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>0.08</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0003081664098613251</v>
+        <v>0.0002551508579447599</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1762,10 +1762,10 @@
         <v>0.0001680757012958636</v>
       </c>
       <c r="H37" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0001926040061633282</v>
+        <v>0.0002870447151878548</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>0.01</v>
       </c>
       <c r="I38" t="n">
-        <v>3.852080123266563e-05</v>
+        <v>3.189385724309499e-05</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1870,10 +1870,10 @@
         <v>6.723028051834546e-05</v>
       </c>
       <c r="H40" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>3.852080123266563e-05</v>
+        <v>6.378771448618997e-05</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>0.02</v>
       </c>
       <c r="I41" t="n">
-        <v>7.704160246533127e-05</v>
+        <v>6.378771448618997e-05</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         <v>5.042271038875909e-05</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.378771448618997e-05</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -1978,10 +1978,10 @@
         <v>3.361514025917273e-05</v>
       </c>
       <c r="H43" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I43" t="n">
-        <v>3.852080123266563e-05</v>
+        <v>6.378771448618997e-05</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>芬兰</t>
+          <t>瓜德罗普</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2683,11 +2683,7 @@
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>欧洲</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3156,7 +3152,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>肯尼亚</t>
+          <t>芬兰</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3185,14 +3181,14 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>瓜德罗普</t>
+          <t>肯尼亚</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -3219,7 +3215,11 @@
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3260,7 +3260,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>美属维尔京群岛(2023年起增列)</t>
+          <t>美属萨摩亚(2023年起增列)</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3292,7 +3292,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>罗马尼亚</t>
+          <t>美属维尔京群岛(2023年起增列)</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3319,16 +3319,12 @@
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>欧洲</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>缅甸</t>
+          <t>罗马尼亚</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3357,14 +3353,14 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>纳米比亚</t>
+          <t>缅甸</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3393,14 +3389,14 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>毛里塔尼亚</t>
+          <t>纳米比亚</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3436,7 +3432,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>索马里</t>
+          <t>毛里塔尼亚</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3472,7 +3468,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>立陶宛</t>
+          <t>索马里</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3501,14 +3497,14 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>科特迪瓦</t>
+          <t>立陶宛</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3537,14 +3533,14 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>科威特</t>
+          <t>科特迪瓦</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3573,14 +3569,14 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>直布罗陀</t>
+          <t>科威特</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3607,12 +3603,16 @@
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>百慕大</t>
+          <t>直布罗陀</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -3644,7 +3644,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>留尼汪</t>
+          <t>百慕大</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -3676,7 +3676,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>毛里求斯</t>
+          <t>留尼汪</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -3703,16 +3703,12 @@
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>斯洛伐克</t>
+          <t>毛里求斯</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3741,14 +3737,14 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>比利时</t>
+          <t>斯洛文尼亚</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3784,7 +3780,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>塞尔维亚</t>
+          <t>比利时</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -3820,7 +3816,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>埃塞俄比亚</t>
+          <t>塞尔维亚</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -3849,14 +3845,14 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>埃及</t>
+          <t>埃塞俄比亚</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -3892,7 +3888,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>坦桑尼亚</t>
+          <t>埃及</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -3928,7 +3924,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>哥斯达黎加</t>
+          <t>坦桑尼亚</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -3957,14 +3953,14 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>哈萨克斯坦</t>
+          <t>哥斯达黎加</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3974,10 +3970,10 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.000154030463802841</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3993,14 +3989,14 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>古巴</t>
+          <t>哈萨克斯坦</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -4010,10 +4006,10 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="E101" t="n">
-        <v>1.711449597809345e-05</v>
+        <v>0.000154030463802841</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -4029,14 +4025,14 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>危地马拉</t>
+          <t>古巴</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -4046,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="E102" t="n">
-        <v>3.422899195618689e-05</v>
+        <v>1.711449597809345e-05</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -4072,7 +4068,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>卢森堡</t>
+          <t>危地马拉</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -4082,10 +4078,10 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="E103" t="n">
-        <v>9.412972787951395e-05</v>
+        <v>3.422899195618689e-05</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4101,14 +4097,14 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>卢旺达</t>
+          <t>卢森堡</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -4118,10 +4114,10 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>9.412972787951395e-05</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -4137,14 +4133,14 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>卡塔尔</t>
+          <t>卢旺达</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -4173,14 +4169,14 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>匈牙利</t>
+          <t>卡塔尔</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -4209,14 +4205,14 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>加蓬</t>
+          <t>匈牙利</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -4245,14 +4241,14 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>加纳</t>
+          <t>加蓬</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -4288,7 +4284,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>刚果共和国</t>
+          <t>加纳</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -4324,7 +4320,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>列支敦士登</t>
+          <t>刚果共和国</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -4353,14 +4349,14 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>几内亚</t>
+          <t>列支敦士登</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -4389,14 +4385,14 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>冰岛</t>
+          <t>几内亚</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -4425,14 +4421,14 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>关岛(2023年起增列)</t>
+          <t>冰岛</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -4459,12 +4455,16 @@
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>欧洲</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>克罗地亚</t>
+          <t>关岛(2023年起增列)</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -4491,16 +4491,12 @@
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>欧洲</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>保加利亚</t>
+          <t>克罗地亚</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -4536,7 +4532,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>佛得角</t>
+          <t>保加利亚</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -4565,14 +4561,14 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>伊拉克</t>
+          <t>佛得角</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -4601,14 +4597,14 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>亚美尼亚(2023年起)</t>
+          <t>伊拉克</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -4635,12 +4631,16 @@
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>也门</t>
+          <t>亚美尼亚(2023年起)</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -4667,16 +4667,12 @@
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>亚洲</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>乌拉圭</t>
+          <t>也门</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -4686,10 +4682,10 @@
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>2.567174396714017e-05</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -4705,14 +4701,14 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>乌干达</t>
+          <t>乌拉圭</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -4722,10 +4718,10 @@
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>2.567174396714017e-05</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -4741,14 +4737,14 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>乌兹别克斯坦</t>
+          <t>乌干达</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -4777,14 +4773,14 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>丹麦</t>
+          <t>乌兹别克斯坦</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -4813,21 +4809,21 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>中国澳门</t>
+          <t>丹麦</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>1.474252185578865e-05</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -4849,21 +4845,21 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>塞内加尔</t>
+          <t>中国澳门</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1.474252185578865e-05</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -4885,14 +4881,14 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>塞浦路斯</t>
+          <t>塞内加尔</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -4921,49 +4917,53 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
+          <t>塞浦路斯</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>欧洲</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
           <t xml:space="preserve">欧洲其他国家(地区) </t>
         </is>
       </c>
-      <c r="B127" t="n">
-        <v>0</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>塞舌尔</t>
-        </is>
-      </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
@@ -4988,16 +4988,12 @@
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>格鲁吉亚(2023年起停用)</t>
+          <t>塞舌尔</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -5024,12 +5020,16 @@
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>格鲁吉亚(2023年起)</t>
+          <t>格鲁吉亚(2023年起停用)</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -5061,7 +5061,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>格陵兰</t>
+          <t>格鲁吉亚(2023年起)</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -5093,7 +5093,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>柬埔寨</t>
+          <t>格陵兰</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -5120,16 +5120,12 @@
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>亚洲</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>新喀里多尼亚</t>
+          <t>柬埔寨</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -5156,12 +5152,16 @@
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>斯里兰卡</t>
+          <t>新喀里多尼亚</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -5188,16 +5188,12 @@
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>亚洲</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>斯洛文尼亚</t>
+          <t>斯里兰卡</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -5226,14 +5222,14 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>斐济</t>
+          <t>斯洛伐克</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -5262,14 +5258,14 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>大洋洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>文莱</t>
+          <t>斐济</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -5298,14 +5294,14 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>大洋洲</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>摩纳哥</t>
+          <t>文莱</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -5334,14 +5330,14 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>摩洛哥</t>
+          <t>摩纳哥</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -5370,14 +5366,14 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>摩尔多瓦</t>
+          <t>摩洛哥</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -5406,14 +5402,14 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>拉脱维亚</t>
+          <t>摩尔多瓦</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -5449,7 +5445,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>库拉索</t>
+          <t>拉脱维亚</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -5478,14 +5474,14 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>布基纳法索</t>
+          <t>库拉索</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -5514,14 +5510,14 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>巴林</t>
+          <t>布基纳法索</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -5550,14 +5546,14 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>巴拿马</t>
+          <t>巴林</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -5567,10 +5563,10 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>0.0002139311997261681</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -5586,14 +5582,14 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>巴拉圭</t>
+          <t>巴拿马</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -5603,10 +5599,10 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>0.0002139311997261681</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -5615,21 +5611,21 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>0.0001594692862154749</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>巴布亚新几内亚</t>
+          <t>巴拉圭</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -5658,14 +5654,14 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>大洋洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>巴基斯坦</t>
+          <t>巴布亚新几内亚</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -5694,14 +5690,14 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>大洋洲</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>尼泊尔</t>
+          <t>巴基斯坦</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -5737,7 +5733,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>尼日利亚</t>
+          <t>尼泊尔</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -5766,14 +5762,14 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>尼加拉瓜</t>
+          <t>尼日利亚</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -5783,10 +5779,10 @@
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>8.557247989046724e-06</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -5802,14 +5798,14 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>安哥拉</t>
+          <t>尼加拉瓜</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -5819,10 +5815,10 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>8.557247989046724e-06</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -5838,21 +5834,21 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>孟加拉国</t>
+          <t>安哥拉</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>2.948504371157731e-05</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -5874,21 +5870,21 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>奥地利</t>
+          <t>孟加拉国</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>2.948504371157731e-05</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -5910,14 +5906,14 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>多米尼加</t>
+          <t>奥地利</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -5944,12 +5940,16 @@
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>欧洲</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>多米尼克</t>
+          <t>多米尼加</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -5976,16 +5976,12 @@
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>多哥</t>
+          <t>多米尼克</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -6014,41 +6010,77 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
+          <t>多哥</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
           <t>黎巴嫩</t>
         </is>
       </c>
-      <c r="B158" t="n">
-        <v>0</v>
-      </c>
-      <c r="C158" t="n">
-        <v>0</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0</v>
-      </c>
-      <c r="F158" t="n">
-        <v>0</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr">
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr">
         <is>
           <t>亚洲</t>
         </is>

--- a/output/笔记本电脑出口.xlsx
+++ b/output/笔记本电脑出口.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J159"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2024年1-7月金额</t>
+          <t>2024年1-8月金额</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2024年1-7月占比</t>
+          <t>2024年1-8月占比</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -510,10 +510,10 @@
         <v>0.4656369228700607</v>
       </c>
       <c r="H2" t="n">
-        <v>154.95</v>
+        <v>183.11</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4941953179817568</v>
+        <v>0.5022767171384683</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -546,10 +546,10 @@
         <v>0.09316436122829722</v>
       </c>
       <c r="H3" t="n">
-        <v>27.59</v>
+        <v>30.54</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08799515213369906</v>
+        <v>0.08377221856484529</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
         <v>0.08519757298687328</v>
       </c>
       <c r="H4" t="n">
-        <v>24.42</v>
+        <v>28.39</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07788479938763795</v>
+        <v>0.07787469826640334</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -618,10 +618,10 @@
         <v>0.04205254046422508</v>
       </c>
       <c r="H5" t="n">
-        <v>12.99</v>
+        <v>15.63</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04143012055878038</v>
+        <v>0.04287360105332456</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -654,10 +654,10 @@
         <v>0.036001815217574</v>
       </c>
       <c r="H6" t="n">
-        <v>12.35</v>
+        <v>14.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0393889136952223</v>
+        <v>0.03895106429668641</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -690,10 +690,10 @@
         <v>0.03430425063448577</v>
       </c>
       <c r="H7" t="n">
-        <v>6.03</v>
+        <v>7.37</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01923199591758628</v>
+        <v>0.02021615097651964</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -726,10 +726,10 @@
         <v>0.03270753147217507</v>
       </c>
       <c r="H8" t="n">
-        <v>10.77</v>
+        <v>11.92</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0343496842508133</v>
+        <v>0.03269694974764099</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
         <v>0.0316822696942703</v>
       </c>
       <c r="H9" t="n">
-        <v>9.73</v>
+        <v>11.41</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03103272309753142</v>
+        <v>0.03129800307219662</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -798,10 +798,10 @@
         <v>0.03082508361766139</v>
       </c>
       <c r="H10" t="n">
-        <v>8.58</v>
+        <v>9.99</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0273649295145755</v>
+        <v>0.02740289664252798</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -834,10 +834,10 @@
         <v>0.02574919743852631</v>
       </c>
       <c r="H11" t="n">
-        <v>8.81</v>
+        <v>10.19</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02809848823116668</v>
+        <v>0.02795150318191793</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -870,10 +870,10 @@
         <v>0.01966485705161605</v>
       </c>
       <c r="H12" t="n">
-        <v>5.46</v>
+        <v>6.1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01741404605472986</v>
+        <v>0.01673249945139346</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         <v>0.01892532396591425</v>
       </c>
       <c r="H13" t="n">
-        <v>4.4</v>
+        <v>5.07</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01403329718696179</v>
+        <v>0.01390717577353522</v>
       </c>
       <c r="J13" t="inlineStr"/>
     </row>
@@ -938,10 +938,10 @@
         <v>0.01403432105820461</v>
       </c>
       <c r="H14" t="n">
-        <v>2.39</v>
+        <v>2.53</v>
       </c>
       <c r="I14" t="n">
-        <v>0.007622631881099701</v>
+        <v>0.006939872723282861</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -974,10 +974,10 @@
         <v>0.01354690152444661</v>
       </c>
       <c r="H15" t="n">
-        <v>3.93</v>
+        <v>4.29</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01253428589653633</v>
+        <v>0.01176761026991442</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1010,10 +1010,10 @@
         <v>0.01252163974654184</v>
       </c>
       <c r="H16" t="n">
-        <v>4.16</v>
+        <v>4.44</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01326784461312751</v>
+        <v>0.01217906517445688</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1046,10 +1046,10 @@
         <v>0.01038707834008437</v>
       </c>
       <c r="H17" t="n">
-        <v>2.68</v>
+        <v>3.04</v>
       </c>
       <c r="I17" t="n">
-        <v>0.008547553741149455</v>
+        <v>0.008338819398727233</v>
       </c>
       <c r="J17" t="inlineStr"/>
     </row>
@@ -1078,10 +1078,10 @@
         <v>0.004017009260971142</v>
       </c>
       <c r="H18" t="n">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="I18" t="n">
-        <v>0.004975441729922817</v>
+        <v>0.00499231950844854</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1114,10 +1114,10 @@
         <v>0.003916163840193623</v>
       </c>
       <c r="H19" t="n">
-        <v>2.39</v>
+        <v>2.47</v>
       </c>
       <c r="I19" t="n">
-        <v>0.007622631881099701</v>
+        <v>0.006775290761465877</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         <v>0.003764895709027346</v>
       </c>
       <c r="H20" t="n">
-        <v>1.89</v>
+        <v>2.25</v>
       </c>
       <c r="I20" t="n">
-        <v>0.006027939018944952</v>
+        <v>0.006171823568136932</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1186,10 +1186,10 @@
         <v>0.003714472998638587</v>
       </c>
       <c r="H21" t="n">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002615296293933788</v>
+        <v>0.002386438446346281</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1222,10 +1222,10 @@
         <v>0.00351278215708355</v>
       </c>
       <c r="H22" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="I22" t="n">
-        <v>0.005007335587165913</v>
+        <v>0.004745446565723063</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1258,10 +1258,10 @@
         <v>0.00240348252853085</v>
       </c>
       <c r="H23" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001722268291127129</v>
+        <v>0.001536098310291859</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         <v>0.002151368976587055</v>
       </c>
       <c r="H24" t="n">
-        <v>0.72</v>
+        <v>1.02</v>
       </c>
       <c r="I24" t="n">
-        <v>0.002296357721502839</v>
+        <v>0.002797893350888743</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1330,10 +1330,10 @@
         <v>0.001798410003865741</v>
       </c>
       <c r="H25" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="I25" t="n">
-        <v>0.003986732155386873</v>
+        <v>0.004004827737546631</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1366,10 +1366,10 @@
         <v>0.001579911592181118</v>
       </c>
       <c r="H26" t="n">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="I26" t="n">
-        <v>0.003572112011226639</v>
+        <v>0.003538512179065175</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1402,10 +1402,10 @@
         <v>0.001361413180496496</v>
       </c>
       <c r="H27" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0009887095745359446</v>
+        <v>0.0009874917709019092</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1438,10 +1438,10 @@
         <v>0.001226952619459805</v>
       </c>
       <c r="H28" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0009249218600497545</v>
+        <v>0.0008777704630239193</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         <v>0.0011092996285527</v>
       </c>
       <c r="H29" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0005103017158895198</v>
+        <v>0.0004937458854509546</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1510,10 +1510,10 @@
         <v>0.0006554952350538683</v>
       </c>
       <c r="H30" t="n">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="I30" t="n">
-        <v>0.001562799004911654</v>
+        <v>0.001481237656352864</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1546,10 +1546,10 @@
         <v>0.0005378422441467636</v>
       </c>
       <c r="H31" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0004465140014033298</v>
+        <v>0.0004114549045424622</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1582,10 +1582,10 @@
         <v>0.0003529589727213137</v>
       </c>
       <c r="H32" t="n">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="I32" t="n">
-        <v>0.002041206863558079</v>
+        <v>0.002057274522712311</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1618,10 +1618,10 @@
         <v>0.0003361514025917273</v>
       </c>
       <c r="H33" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0001594692862154749</v>
+        <v>0.0001645819618169849</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>0.05</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0001594692862154749</v>
+        <v>0.0001371516348474874</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1690,10 +1690,10 @@
         <v>0.00018488327142545</v>
       </c>
       <c r="H35" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0002551508579447599</v>
+        <v>0.0004388852315119596</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1704,20 +1704,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>厄瓜多尔</t>
+          <t>秘鲁</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.0002948504371157731</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.0005048776313537566</v>
       </c>
       <c r="F36" t="n">
         <v>0.1</v>
@@ -1726,10 +1726,10 @@
         <v>0.0001680757012958636</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.0003017335966644722</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1740,20 +1740,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>秘鲁</t>
+          <t>厄瓜多尔</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0002948504371157731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0005048776313537566</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0.1</v>
@@ -1762,10 +1762,10 @@
         <v>0.0001680757012958636</v>
       </c>
       <c r="H37" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0002870447151878548</v>
+        <v>2.743032696949748e-05</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>0.01</v>
       </c>
       <c r="I38" t="n">
-        <v>3.189385724309499e-05</v>
+        <v>2.743032696949748e-05</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>6.378771448618997e-05</v>
+        <v>5.486065393899495e-05</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1906,10 +1906,10 @@
         <v>6.723028051834546e-05</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I41" t="n">
-        <v>6.378771448618997e-05</v>
+        <v>0.0001371516348474874</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>0.02</v>
       </c>
       <c r="I42" t="n">
-        <v>6.378771448618997e-05</v>
+        <v>5.486065393899495e-05</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>0.02</v>
       </c>
       <c r="I43" t="n">
-        <v>6.378771448618997e-05</v>
+        <v>5.486065393899495e-05</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>斯洛文尼亚</t>
+          <t>斯洛伐克</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3816,7 +3816,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>塞尔维亚</t>
+          <t>刚果共和国</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
@@ -3960,7 +3960,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>哥斯达黎加</t>
+          <t>圣赫勒拿</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3987,16 +3987,12 @@
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>哈萨克斯坦</t>
+          <t>哥斯达黎加</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -4006,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.000154030463802841</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -4025,14 +4021,14 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>古巴</t>
+          <t>哈萨克斯坦</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -4042,10 +4038,10 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="E102" t="n">
-        <v>1.711449597809345e-05</v>
+        <v>0.000154030463802841</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -4061,14 +4057,14 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>危地马拉</t>
+          <t>古巴</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -4078,10 +4074,10 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="E103" t="n">
-        <v>3.422899195618689e-05</v>
+        <v>1.711449597809345e-05</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4104,7 +4100,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>卢森堡</t>
+          <t>危地马拉</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -4114,10 +4110,10 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="E104" t="n">
-        <v>9.412972787951395e-05</v>
+        <v>3.422899195618689e-05</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -4133,14 +4129,14 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>卢旺达</t>
+          <t>卢森堡</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -4150,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>9.412972787951395e-05</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -4169,14 +4165,14 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>卡塔尔</t>
+          <t>卢旺达</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -4205,14 +4201,14 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>匈牙利</t>
+          <t>卡塔尔</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -4241,14 +4237,14 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>加蓬</t>
+          <t>匈牙利</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -4277,14 +4273,14 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>加纳</t>
+          <t>加蓬</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -4320,7 +4316,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>刚果共和国</t>
+          <t>加纳</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -4392,7 +4388,8 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>几内亚</t>
+          <t xml:space="preserve">欧洲其他国家(地区)+</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -4419,16 +4416,12 @@
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>非洲</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>冰岛</t>
+          <t>几内亚</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -4457,14 +4450,14 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>关岛(2023年起增列)</t>
+          <t>冰岛</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -4491,12 +4484,16 @@
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>欧洲</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>克罗地亚</t>
+          <t>关岛(2023年起增列)</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -4523,16 +4520,12 @@
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>欧洲</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>保加利亚</t>
+          <t>克罗地亚</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -4568,7 +4561,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>佛得角</t>
+          <t>保加利亚</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -4597,14 +4590,14 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>伊拉克</t>
+          <t>佛得角</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -4633,14 +4626,14 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>亚美尼亚(2023年起)</t>
+          <t>伊拉克</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -4667,12 +4660,16 @@
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>也门</t>
+          <t>亚美尼亚(2023年起)</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -4699,16 +4696,12 @@
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>亚洲</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>乌拉圭</t>
+          <t>也门</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -4718,10 +4711,10 @@
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>2.567174396714017e-05</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -4737,14 +4730,14 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>乌干达</t>
+          <t>乌拉圭</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -4754,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>2.567174396714017e-05</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4773,14 +4766,14 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>乌兹别克斯坦</t>
+          <t>乌干达</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -4809,14 +4802,14 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>丹麦</t>
+          <t>乌兹别克斯坦</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -4845,21 +4838,21 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>中国澳门</t>
+          <t>丹麦</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>1.474252185578865e-05</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -4881,21 +4874,21 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>塞内加尔</t>
+          <t>中国澳门</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1.474252185578865e-05</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -4917,14 +4910,14 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>塞浦路斯</t>
+          <t>塞内加尔</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -4953,15 +4946,14 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve">欧洲其他国家(地区)-</t>
+          <t>塞尔维亚</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -4988,12 +4980,16 @@
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>欧洲</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>塞舌尔</t>
+          <t>塞浦路斯</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -5022,14 +5018,14 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>格鲁吉亚(2023年起停用)</t>
+          <t>塞舌尔</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -5056,12 +5052,16 @@
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>格鲁吉亚(2023年起)</t>
+          <t>格鲁吉亚(2023年起停用)</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -5093,7 +5093,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>格陵兰</t>
+          <t>格鲁吉亚(2023年起)</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -5125,7 +5125,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>柬埔寨</t>
+          <t>格陵兰</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -5152,16 +5152,12 @@
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>亚洲</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>新喀里多尼亚</t>
+          <t>柬埔寨</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -5188,12 +5184,16 @@
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>亚洲</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>斯里兰卡</t>
+          <t>新喀里多尼亚</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -5220,16 +5220,12 @@
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>亚洲</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>斯洛伐克</t>
+          <t>斯里兰卡</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -5258,14 +5254,14 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>斐济</t>
+          <t>斯洛文尼亚</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -5294,14 +5290,14 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>大洋洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>文莱</t>
+          <t>斐济</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -5330,14 +5326,14 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>大洋洲</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>摩纳哥</t>
+          <t>文莱</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -5366,14 +5362,14 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>摩洛哥</t>
+          <t>摩纳哥</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -5402,14 +5398,14 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>摩尔多瓦</t>
+          <t>摩洛哥</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -5431,21 +5427,21 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>2.743032696949748e-05</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>拉脱维亚</t>
+          <t>摩尔多瓦</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -5481,7 +5477,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>库拉索</t>
+          <t>拉脱维亚</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -5510,14 +5506,14 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>欧洲</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>布基纳法索</t>
+          <t>库拉索</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -5546,14 +5542,14 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>巴林</t>
+          <t>布基纳法索</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -5582,14 +5578,14 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>巴拿马</t>
+          <t>巴林</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -5599,10 +5595,10 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>0.0002139311997261681</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -5611,21 +5607,21 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0.0001594692862154749</v>
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>巴拉圭</t>
+          <t>巴拿马</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -5635,10 +5631,10 @@
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>0.0002139311997261681</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -5647,21 +5643,21 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>0.0001371516348474874</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>南美洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>巴布亚新几内亚</t>
+          <t>巴拉圭</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -5690,14 +5686,14 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>大洋洲</t>
+          <t>南美洲</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>巴基斯坦</t>
+          <t>巴布亚新几内亚</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -5726,14 +5722,14 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>大洋洲</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>尼泊尔</t>
+          <t>巴基斯坦</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -5769,7 +5765,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>尼日利亚</t>
+          <t>尼泊尔</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -5798,14 +5794,14 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>尼加拉瓜</t>
+          <t>尼日利亚</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -5815,10 +5811,10 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>8.557247989046724e-06</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -5834,14 +5830,14 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>北美洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>安哥拉</t>
+          <t>尼加拉瓜</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -5851,10 +5847,10 @@
         <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>8.557247989046724e-06</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -5870,21 +5866,21 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>孟加拉国</t>
+          <t>安哥拉</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>2.948504371157731e-05</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -5906,21 +5902,21 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>亚洲</t>
+          <t>非洲</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>奥地利</t>
+          <t>孟加拉国</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>2.948504371157731e-05</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -5942,14 +5938,14 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>欧洲</t>
+          <t>亚洲</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>多米尼加</t>
+          <t>奥地利</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -5976,12 +5972,16 @@
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>欧洲</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>多米尼克</t>
+          <t>多米尼加</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -6008,16 +6008,12 @@
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>北美洲</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>多哥</t>
+          <t>多米尼克</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -6046,41 +6042,77 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>非洲</t>
+          <t>北美洲</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
+          <t>多哥</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>非洲</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
           <t>黎巴嫩</t>
         </is>
       </c>
-      <c r="B159" t="n">
-        <v>0</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0</v>
-      </c>
-      <c r="F159" t="n">
-        <v>0</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr">
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr">
         <is>
           <t>亚洲</t>
         </is>
